--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H2">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I2">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J2">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N2">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O2">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P2">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q2">
-        <v>6.639455635891778</v>
+        <v>15.97130334156556</v>
       </c>
       <c r="R2">
-        <v>59.755100723026</v>
+        <v>143.74173007409</v>
       </c>
       <c r="S2">
-        <v>0.003164936048532501</v>
+        <v>0.005000586820790319</v>
       </c>
       <c r="T2">
-        <v>0.003181118523237974</v>
+        <v>0.005039165567801437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H3">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I3">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J3">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.088322</v>
       </c>
       <c r="O3">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P3">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q3">
-        <v>13.70658640956067</v>
+        <v>13.32004091766267</v>
       </c>
       <c r="R3">
-        <v>123.359277686046</v>
+        <v>119.880368258964</v>
       </c>
       <c r="S3">
-        <v>0.006533738879952252</v>
+        <v>0.004170481246317784</v>
       </c>
       <c r="T3">
-        <v>0.006567146210317116</v>
+        <v>0.004202655858354793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H4">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I4">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J4">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N4">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O4">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P4">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q4">
-        <v>713.6715324598969</v>
+        <v>1077.230394974298</v>
       </c>
       <c r="R4">
-        <v>6423.043792139073</v>
+        <v>9695.073554768682</v>
       </c>
       <c r="S4">
-        <v>0.3401972817897111</v>
+        <v>0.3372789308962681</v>
       </c>
       <c r="T4">
-        <v>0.3419367273339537</v>
+        <v>0.3398809852177989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H5">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I5">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J5">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N5">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O5">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P5">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q5">
-        <v>5.943882162134166</v>
+        <v>14.42778010091567</v>
       </c>
       <c r="R5">
-        <v>35.663292972805</v>
+        <v>86.566680605494</v>
       </c>
       <c r="S5">
-        <v>0.002833365859314307</v>
+        <v>0.004517312424849831</v>
       </c>
       <c r="T5">
-        <v>0.00189856866615131</v>
+        <v>0.00303477519020554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H6">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I6">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J6">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N6">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O6">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P6">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q6">
-        <v>907.3332074598811</v>
+        <v>1206.572598823125</v>
       </c>
       <c r="R6">
-        <v>8165.99886713893</v>
+        <v>10859.15338940813</v>
       </c>
       <c r="S6">
-        <v>0.4325131055619578</v>
+        <v>0.377775746097013</v>
       </c>
       <c r="T6">
-        <v>0.4347245664835102</v>
+        <v>0.3806902270285349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.812943</v>
       </c>
       <c r="I7">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J7">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N7">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O7">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P7">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q7">
-        <v>0.2233461018473333</v>
+        <v>0.5528534336816666</v>
       </c>
       <c r="R7">
-        <v>2.010114916626</v>
+        <v>4.975680903134999</v>
       </c>
       <c r="S7">
-        <v>0.0001064659767006475</v>
+        <v>0.0001730974320112202</v>
       </c>
       <c r="T7">
-        <v>0.0001070103425104245</v>
+        <v>0.0001744328516883811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.812943</v>
       </c>
       <c r="I8">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J8">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.088322</v>
       </c>
       <c r="O8">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P8">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q8">
         <v>0.4610788612939999</v>
@@ -948,10 +948,10 @@
         <v>4.149709751646</v>
       </c>
       <c r="S8">
-        <v>0.000219789872747556</v>
+        <v>0.0001443629757586068</v>
       </c>
       <c r="T8">
-        <v>0.0002209136692482486</v>
+        <v>0.0001454767135896166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.812943</v>
       </c>
       <c r="I9">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J9">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N9">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O9">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P9">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q9">
-        <v>24.007352939097</v>
+        <v>37.288786643847</v>
       </c>
       <c r="R9">
-        <v>216.066176451873</v>
+        <v>335.599079794623</v>
       </c>
       <c r="S9">
-        <v>0.01144397084846027</v>
+        <v>0.0116750531291459</v>
       </c>
       <c r="T9">
-        <v>0.01150248443797538</v>
+        <v>0.01176512434221595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>3.812943</v>
       </c>
       <c r="I10">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J10">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N10">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O10">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P10">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q10">
-        <v>0.1999475534675</v>
+        <v>0.4994237225735</v>
       </c>
       <c r="R10">
-        <v>1.199685320805</v>
+        <v>2.996542335441</v>
       </c>
       <c r="S10">
-        <v>9.531221450810599E-05</v>
+        <v>0.0001563686839878329</v>
       </c>
       <c r="T10">
-        <v>6.386636705306213E-05</v>
+        <v>0.0001050500293229421</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.812943</v>
       </c>
       <c r="I11">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J11">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N11">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O11">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P11">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q11">
-        <v>30.52198042672566</v>
+        <v>41.76602184428799</v>
       </c>
       <c r="R11">
-        <v>274.697823840531</v>
+        <v>375.894196598592</v>
       </c>
       <c r="S11">
-        <v>0.01454940305692285</v>
+        <v>0.01307686754955307</v>
       </c>
       <c r="T11">
-        <v>0.01462379487506323</v>
+        <v>0.01317775354213191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H12">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I12">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J12">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N12">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O12">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P12">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q12">
-        <v>0.5605285459553333</v>
+        <v>3.164777552948888</v>
       </c>
       <c r="R12">
-        <v>5.044756913598</v>
+        <v>28.48299797654</v>
       </c>
       <c r="S12">
-        <v>0.0002671961526085657</v>
+        <v>0.0009908862528972516</v>
       </c>
       <c r="T12">
-        <v>0.0002685623397651728</v>
+        <v>0.000998530785716557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H13">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I13">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J13">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.088322</v>
       </c>
       <c r="O13">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P13">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q13">
-        <v>1.157163082562</v>
+        <v>2.639419313442666</v>
       </c>
       <c r="R13">
-        <v>10.414467743058</v>
+        <v>23.754773820984</v>
       </c>
       <c r="S13">
-        <v>0.0005516035281918946</v>
+        <v>0.0008263975175395458</v>
       </c>
       <c r="T13">
-        <v>0.0005544239043402703</v>
+        <v>0.0008327730454330373</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H14">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I14">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J14">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N14">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O14">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P14">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q14">
-        <v>60.25091337563099</v>
+        <v>213.457505656188</v>
       </c>
       <c r="R14">
-        <v>542.2582203806789</v>
+        <v>1921.117550905692</v>
       </c>
       <c r="S14">
-        <v>0.02872077142419689</v>
+        <v>0.06683316738497795</v>
       </c>
       <c r="T14">
-        <v>0.02886762215039379</v>
+        <v>0.06734877484244217</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H15">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I15">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J15">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N15">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O15">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P15">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q15">
-        <v>0.5018055407524999</v>
+        <v>2.858922257360666</v>
       </c>
       <c r="R15">
-        <v>3.010833244515</v>
+        <v>17.153533544164</v>
       </c>
       <c r="S15">
-        <v>0.0002392037137345245</v>
+        <v>0.0008951235009490773</v>
       </c>
       <c r="T15">
-        <v>0.0001602845161102146</v>
+        <v>0.0006013528260535332</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H16">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I16">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J16">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N16">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O16">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P16">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q16">
-        <v>76.60058163882366</v>
+        <v>239.0871799936853</v>
       </c>
       <c r="R16">
-        <v>689.4052347494129</v>
+        <v>2151.784619943168</v>
       </c>
       <c r="S16">
-        <v>0.03651443061938722</v>
+        <v>0.07485777307759477</v>
       </c>
       <c r="T16">
-        <v>0.03670113071089681</v>
+        <v>0.07543528911578642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H17">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I17">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J17">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N17">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O17">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P17">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q17">
-        <v>0.09864691088566668</v>
+        <v>0.3682648311058334</v>
       </c>
       <c r="R17">
-        <v>0.5918814653140001</v>
+        <v>2.209588986635</v>
       </c>
       <c r="S17">
-        <v>4.702360878061429E-05</v>
+        <v>0.0001153030671076021</v>
       </c>
       <c r="T17">
-        <v>3.150936188023302E-05</v>
+        <v>7.746174151866144E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H18">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I18">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J18">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.088322</v>
       </c>
       <c r="O18">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P18">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q18">
-        <v>0.203648082349</v>
+        <v>0.307132268041</v>
       </c>
       <c r="R18">
-        <v>1.221888494094</v>
+        <v>1.842793608246</v>
       </c>
       <c r="S18">
-        <v>9.707620509678953E-05</v>
+        <v>9.616256976399752E-05</v>
       </c>
       <c r="T18">
-        <v>6.50483736929921E-05</v>
+        <v>6.460296598942688E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H19">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I19">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J19">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N19">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O19">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P19">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q19">
-        <v>10.6035036492495</v>
+        <v>24.8386785338205</v>
       </c>
       <c r="R19">
-        <v>63.621021895497</v>
+        <v>149.032071202923</v>
       </c>
       <c r="S19">
-        <v>0.005054542537921204</v>
+        <v>0.007776946305867043</v>
       </c>
       <c r="T19">
-        <v>0.003386924442771576</v>
+        <v>0.0052246294887143</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H20">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I20">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J20">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N20">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O20">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P20">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q20">
-        <v>0.08831230241125</v>
+        <v>0.33267441538525</v>
       </c>
       <c r="R20">
-        <v>0.353249209645</v>
+        <v>1.330697661541</v>
       </c>
       <c r="S20">
-        <v>4.209724482822415E-05</v>
+        <v>0.000104159770909876</v>
       </c>
       <c r="T20">
-        <v>1.880555116674529E-05</v>
+        <v>4.66503765728642E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H21">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I21">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J21">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N21">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O21">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P21">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q21">
-        <v>13.48086695180983</v>
+        <v>27.821039073632</v>
       </c>
       <c r="R21">
-        <v>80.88520171085899</v>
+        <v>166.926234441792</v>
       </c>
       <c r="S21">
-        <v>0.006426141557540915</v>
+        <v>0.008710718114672009</v>
       </c>
       <c r="T21">
-        <v>0.004305999158312915</v>
+        <v>0.005851946630447942</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.311165</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H22">
-        <v>15.933495</v>
+        <v>12.82147</v>
       </c>
       <c r="I22">
-        <v>0.1103825432989058</v>
+        <v>0.08482455518202518</v>
       </c>
       <c r="J22">
-        <v>0.1108134925816486</v>
+        <v>0.08530234183968073</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N22">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O22">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P22">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q22">
-        <v>0.9333168623433334</v>
+        <v>1.859034796572222</v>
       </c>
       <c r="R22">
-        <v>8.399851761090002</v>
+        <v>16.73131316915</v>
       </c>
       <c r="S22">
-        <v>0.0004448991520276814</v>
+        <v>0.0005820605059160074</v>
       </c>
       <c r="T22">
-        <v>0.0004471739434180201</v>
+        <v>0.0005865510118921336</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.311165</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H23">
-        <v>15.933495</v>
+        <v>12.82147</v>
       </c>
       <c r="I23">
-        <v>0.1103825432989058</v>
+        <v>0.08482455518202518</v>
       </c>
       <c r="J23">
-        <v>0.1108134925816486</v>
+        <v>0.08530234183968073</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.088322</v>
       </c>
       <c r="O23">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P23">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q23">
-        <v>1.92675257171</v>
+        <v>1.550431985926667</v>
       </c>
       <c r="R23">
-        <v>17.34077314539</v>
+        <v>13.95388787334</v>
       </c>
       <c r="S23">
-        <v>0.0009184561212884168</v>
+        <v>0.0004854375118641176</v>
       </c>
       <c r="T23">
-        <v>0.0009231522329073952</v>
+        <v>0.0004891825865185664</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.311165</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H24">
-        <v>15.933495</v>
+        <v>12.82147</v>
       </c>
       <c r="I24">
-        <v>0.1103825432989058</v>
+        <v>0.08482455518202518</v>
       </c>
       <c r="J24">
-        <v>0.1108134925816486</v>
+        <v>0.08530234183968073</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N24">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O24">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P24">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q24">
-        <v>100.321729965105</v>
+        <v>125.38793768763</v>
       </c>
       <c r="R24">
-        <v>902.895569685945</v>
+        <v>1128.49143918867</v>
       </c>
       <c r="S24">
-        <v>0.04782197171426049</v>
+        <v>0.03925874146132013</v>
       </c>
       <c r="T24">
-        <v>0.04806648782320073</v>
+        <v>0.03956161652560544</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.311165</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H25">
-        <v>15.933495</v>
+        <v>12.82147</v>
       </c>
       <c r="I25">
-        <v>0.1103825432989058</v>
+        <v>0.08482455518202518</v>
       </c>
       <c r="J25">
-        <v>0.1108134925816486</v>
+        <v>0.08530234183968073</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N25">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O25">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P25">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q25">
-        <v>0.8355391998875</v>
+        <v>1.679371098981667</v>
       </c>
       <c r="R25">
-        <v>5.013235199325</v>
+        <v>10.07622659389</v>
       </c>
       <c r="S25">
-        <v>0.0003982899018694573</v>
+        <v>0.0005258081200504389</v>
       </c>
       <c r="T25">
-        <v>0.0002668842519041408</v>
+        <v>0.0003532430984316375</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.311165</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H26">
-        <v>15.933495</v>
+        <v>12.82147</v>
       </c>
       <c r="I26">
-        <v>0.1103825432989058</v>
+        <v>0.08482455518202518</v>
       </c>
       <c r="J26">
-        <v>0.1108134925816486</v>
+        <v>0.08530234183968073</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N26">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O26">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P26">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q26">
-        <v>127.5450019891016</v>
+        <v>140.4431684648533</v>
       </c>
       <c r="R26">
-        <v>1147.905017901915</v>
+        <v>1263.98851618368</v>
       </c>
       <c r="S26">
-        <v>0.06079892640945981</v>
+        <v>0.04397250758287449</v>
       </c>
       <c r="T26">
-        <v>0.06110979433021834</v>
+        <v>0.04431174861723295</v>
       </c>
     </row>
   </sheetData>
